--- a/Project/files/Backup_v01.xlsx
+++ b/Project/files/Backup_v01.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af8ba108afe3784/MS-CB/ANGSD/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af8ba108afe3784/MS-CB/ANGSD/Project/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E374945-582D-43A0-BEFE-3C659A13EEB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{4E374945-582D-43A0-BEFE-3C659A13EEB8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{D78299FB-3B26-4683-8723-E58F779BF751}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{86DFC6C4-AA1F-4A9C-B832-BC4C9B4B3E1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,43 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="340">
-  <si>
-    <t>read paired</t>
-  </si>
-  <si>
-    <t>read mapped in proper pair</t>
-  </si>
-  <si>
-    <t>read unmapped</t>
-  </si>
-  <si>
-    <t>mate unmapped</t>
-  </si>
-  <si>
-    <t>read reverse strand</t>
-  </si>
-  <si>
-    <t>mate reverse strand</t>
-  </si>
-  <si>
-    <t>first in pair</t>
-  </si>
-  <si>
-    <t>second in pair</t>
-  </si>
-  <si>
-    <t>not primary alignment</t>
-  </si>
-  <si>
-    <t>read fails platform/vendor quality checks</t>
-  </si>
-  <si>
-    <t>read is PCR or optical duplicate</t>
-  </si>
-  <si>
-    <t>supplementary alignment</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="328">
   <si>
     <t>GSM993606</t>
   </si>
@@ -1404,1365 +1366,1328 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066EE059-A65B-4376-94FB-1C2B0D114F01}">
-  <dimension ref="B3:H166"/>
+  <dimension ref="A1:B164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A2" sqref="A1:B164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="33.15625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.47265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.26171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.47265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
       <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="H4" t="s">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="H5" t="s">
+      <c r="B9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="H6" t="s">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="H7" t="s">
+      <c r="B11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="H8" t="s">
+      <c r="B12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="H9" t="s">
+      <c r="B13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="H10" t="s">
+      <c r="B14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="H11" t="s">
+      <c r="B15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="H12" t="s">
+      <c r="B16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="H13" t="s">
+      <c r="B17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
         <v>34</v>
       </c>
-      <c r="H14" t="s">
+      <c r="B18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G15" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
         <v>36</v>
       </c>
-      <c r="H15" t="s">
+      <c r="B19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G16" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="H16" t="s">
+      <c r="B20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G17" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
         <v>40</v>
       </c>
-      <c r="H17" t="s">
+      <c r="B21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G18" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
         <v>42</v>
       </c>
-      <c r="H18" t="s">
+      <c r="B22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G19" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
         <v>44</v>
       </c>
-      <c r="H19" t="s">
+      <c r="B23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G20" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
         <v>46</v>
       </c>
-      <c r="H20" t="s">
+      <c r="B24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G21" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
         <v>48</v>
       </c>
-      <c r="H21" t="s">
+      <c r="B25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G22" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
         <v>50</v>
       </c>
-      <c r="H22" t="s">
+      <c r="B26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G23" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
         <v>52</v>
       </c>
-      <c r="H23" t="s">
+      <c r="B27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G24" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
         <v>54</v>
       </c>
-      <c r="H24" t="s">
+      <c r="B28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G25" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
         <v>56</v>
       </c>
-      <c r="H25" t="s">
+      <c r="B29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G26" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
         <v>58</v>
       </c>
-      <c r="H26" t="s">
+      <c r="B30" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G27" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
         <v>60</v>
       </c>
-      <c r="H27" t="s">
+      <c r="B31" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G28" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
         <v>62</v>
       </c>
-      <c r="H28" t="s">
+      <c r="B32" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G29" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
         <v>64</v>
       </c>
-      <c r="H29" t="s">
+      <c r="B33" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G30" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
         <v>66</v>
       </c>
-      <c r="H30" t="s">
+      <c r="B34" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G31" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
         <v>68</v>
       </c>
-      <c r="H31" t="s">
+      <c r="B35" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G32" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
         <v>70</v>
       </c>
-      <c r="H32" t="s">
+      <c r="B36" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G33" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
         <v>72</v>
       </c>
-      <c r="H33" t="s">
+      <c r="B37" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G34" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
         <v>74</v>
       </c>
-      <c r="H34" t="s">
+      <c r="B38" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G35" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
         <v>76</v>
       </c>
-      <c r="H35" t="s">
+      <c r="B39" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G36" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
         <v>78</v>
       </c>
-      <c r="H36" t="s">
+      <c r="B40" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G37" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
         <v>80</v>
       </c>
-      <c r="H37" t="s">
+      <c r="B41" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G38" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
         <v>82</v>
       </c>
-      <c r="H38" t="s">
+      <c r="B42" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G39" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
         <v>84</v>
       </c>
-      <c r="H39" t="s">
+      <c r="B43" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G40" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
         <v>86</v>
       </c>
-      <c r="H40" t="s">
+      <c r="B44" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G41" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
         <v>88</v>
       </c>
-      <c r="H41" t="s">
+      <c r="B45" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G42" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
         <v>90</v>
       </c>
-      <c r="H42" t="s">
+      <c r="B46" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G43" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
         <v>92</v>
       </c>
-      <c r="H43" t="s">
+      <c r="B47" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G44" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
         <v>94</v>
       </c>
-      <c r="H44" t="s">
+      <c r="B48" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G45" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
         <v>96</v>
       </c>
-      <c r="H45" t="s">
+      <c r="B49" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G46" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
         <v>98</v>
       </c>
-      <c r="H46" t="s">
+      <c r="B50" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G47" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
         <v>100</v>
       </c>
-      <c r="H47" t="s">
+      <c r="B51" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G48" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="s">
         <v>102</v>
       </c>
-      <c r="H48" t="s">
+      <c r="B52" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G49" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" t="s">
         <v>104</v>
       </c>
-      <c r="H49" t="s">
+      <c r="B53" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G50" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" t="s">
         <v>106</v>
       </c>
-      <c r="H50" t="s">
+      <c r="B54" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G51" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" t="s">
         <v>108</v>
       </c>
-      <c r="H51" t="s">
+      <c r="B55" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G52" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" t="s">
         <v>110</v>
       </c>
-      <c r="H52" t="s">
+      <c r="B56" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G53" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" t="s">
         <v>112</v>
       </c>
-      <c r="H53" t="s">
+      <c r="B57" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G54" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" t="s">
         <v>114</v>
       </c>
-      <c r="H54" t="s">
+      <c r="B58" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G55" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" t="s">
         <v>116</v>
       </c>
-      <c r="H55" t="s">
+      <c r="B59" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G56" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" t="s">
         <v>118</v>
       </c>
-      <c r="H56" t="s">
+      <c r="B60" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G57" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" t="s">
         <v>120</v>
       </c>
-      <c r="H57" t="s">
+      <c r="B61" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G58" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" t="s">
         <v>122</v>
       </c>
-      <c r="H58" t="s">
+      <c r="B62" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G59" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" t="s">
         <v>124</v>
       </c>
-      <c r="H59" t="s">
+      <c r="B63" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G60" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" t="s">
         <v>126</v>
       </c>
-      <c r="H60" t="s">
+      <c r="B64" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="61" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G61" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" t="s">
         <v>128</v>
       </c>
-      <c r="H61" t="s">
+      <c r="B65" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G62" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" t="s">
         <v>130</v>
       </c>
-      <c r="H62" t="s">
+      <c r="B66" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G63" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" t="s">
         <v>132</v>
       </c>
-      <c r="H63" t="s">
+      <c r="B67" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="64" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G64" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" t="s">
         <v>134</v>
       </c>
-      <c r="H64" t="s">
+      <c r="B68" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G65" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" t="s">
         <v>136</v>
       </c>
-      <c r="H65" t="s">
+      <c r="B69" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="66" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G66" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" t="s">
         <v>138</v>
       </c>
-      <c r="H66" t="s">
+      <c r="B70" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G67" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" t="s">
         <v>140</v>
       </c>
-      <c r="H67" t="s">
+      <c r="B71" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G68" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" t="s">
         <v>142</v>
       </c>
-      <c r="H68" t="s">
+      <c r="B72" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G69" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" t="s">
         <v>144</v>
       </c>
-      <c r="H69" t="s">
+      <c r="B73" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="70" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G70" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" t="s">
         <v>146</v>
       </c>
-      <c r="H70" t="s">
+      <c r="B74" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="71" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G71" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" t="s">
         <v>148</v>
       </c>
-      <c r="H71" t="s">
+      <c r="B75" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="72" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G72" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" t="s">
         <v>150</v>
       </c>
-      <c r="H72" t="s">
+      <c r="B76" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="73" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G73" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" t="s">
         <v>152</v>
       </c>
-      <c r="H73" t="s">
+      <c r="B77" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="74" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G74" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" t="s">
         <v>154</v>
       </c>
-      <c r="H74" t="s">
+      <c r="B78" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="75" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G75" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" t="s">
         <v>156</v>
       </c>
-      <c r="H75" t="s">
+      <c r="B79" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G76" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" t="s">
         <v>158</v>
       </c>
-      <c r="H76" t="s">
+      <c r="B80" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="77" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G77" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" t="s">
         <v>160</v>
       </c>
-      <c r="H77" t="s">
+      <c r="B81" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G78" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" t="s">
         <v>162</v>
       </c>
-      <c r="H78" t="s">
+      <c r="B82" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="79" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G79" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" t="s">
         <v>164</v>
       </c>
-      <c r="H79" t="s">
+      <c r="B83" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="80" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G80" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" t="s">
         <v>166</v>
       </c>
-      <c r="H80" t="s">
+      <c r="B84" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="81" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G81" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" t="s">
         <v>168</v>
       </c>
-      <c r="H81" t="s">
+      <c r="B85" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="82" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G82" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" t="s">
         <v>170</v>
       </c>
-      <c r="H82" t="s">
+      <c r="B86" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="83" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G83" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" t="s">
         <v>172</v>
       </c>
-      <c r="H83" t="s">
+      <c r="B87" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G84" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" t="s">
         <v>174</v>
       </c>
-      <c r="H84" t="s">
+      <c r="B88" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="85" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G85" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" t="s">
         <v>176</v>
       </c>
-      <c r="H85" t="s">
+      <c r="B89" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="86" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G86" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" t="s">
         <v>178</v>
       </c>
-      <c r="H86" t="s">
+      <c r="B90" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="87" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G87" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" t="s">
         <v>180</v>
       </c>
-      <c r="H87" t="s">
+      <c r="B91" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="88" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G88" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" t="s">
         <v>182</v>
       </c>
-      <c r="H88" t="s">
+      <c r="B92" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="89" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G89" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" t="s">
         <v>184</v>
       </c>
-      <c r="H89" t="s">
+      <c r="B93" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="90" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G90" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" t="s">
         <v>186</v>
       </c>
-      <c r="H90" t="s">
+      <c r="B94" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="91" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G91" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" t="s">
         <v>188</v>
       </c>
-      <c r="H91" t="s">
+      <c r="B95" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="92" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G92" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" t="s">
         <v>190</v>
       </c>
-      <c r="H92" t="s">
+      <c r="B96" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="93" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G93" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" t="s">
         <v>192</v>
       </c>
-      <c r="H93" t="s">
+      <c r="B97" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="94" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G94" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" t="s">
         <v>194</v>
       </c>
-      <c r="H94" t="s">
+      <c r="B98" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="95" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G95" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" t="s">
         <v>196</v>
       </c>
-      <c r="H95" t="s">
+      <c r="B99" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="96" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G96" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" t="s">
         <v>198</v>
       </c>
-      <c r="H96" t="s">
+      <c r="B100" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="97" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G97" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" t="s">
         <v>200</v>
       </c>
-      <c r="H97" t="s">
+      <c r="B101" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="98" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G98" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" t="s">
         <v>202</v>
       </c>
-      <c r="H98" t="s">
+      <c r="B102" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="99" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G99" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" t="s">
         <v>204</v>
       </c>
-      <c r="H99" t="s">
+      <c r="B103" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="100" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G100" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" t="s">
         <v>206</v>
       </c>
-      <c r="H100" t="s">
+      <c r="B104" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="101" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G101" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" t="s">
         <v>208</v>
       </c>
-      <c r="H101" t="s">
+      <c r="B105" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="102" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G102" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" t="s">
         <v>210</v>
       </c>
-      <c r="H102" t="s">
+      <c r="B106" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="103" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G103" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" t="s">
         <v>212</v>
       </c>
-      <c r="H103" t="s">
+      <c r="B107" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="104" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G104" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" t="s">
         <v>214</v>
       </c>
-      <c r="H104" t="s">
+      <c r="B108" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="105" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G105" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" t="s">
         <v>216</v>
       </c>
-      <c r="H105" t="s">
+      <c r="B109" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="106" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G106" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" t="s">
         <v>218</v>
       </c>
-      <c r="H106" t="s">
+      <c r="B110" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="107" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G107" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" t="s">
         <v>220</v>
       </c>
-      <c r="H107" t="s">
+      <c r="B111" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="108" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G108" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" t="s">
         <v>222</v>
       </c>
-      <c r="H108" t="s">
+      <c r="B112" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="109" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G109" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" t="s">
         <v>224</v>
       </c>
-      <c r="H109" t="s">
+      <c r="B113" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="110" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G110" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" t="s">
         <v>226</v>
       </c>
-      <c r="H110" t="s">
+      <c r="B114" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="111" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G111" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" t="s">
         <v>228</v>
       </c>
-      <c r="H111" t="s">
+      <c r="B115" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="112" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G112" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" t="s">
         <v>230</v>
       </c>
-      <c r="H112" t="s">
+      <c r="B116" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="113" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G113" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" t="s">
         <v>232</v>
       </c>
-      <c r="H113" t="s">
+      <c r="B117" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="114" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G114" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" t="s">
         <v>234</v>
       </c>
-      <c r="H114" t="s">
+      <c r="B118" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="115" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G115" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" t="s">
         <v>236</v>
       </c>
-      <c r="H115" t="s">
+      <c r="B119" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="116" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G116" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" t="s">
         <v>238</v>
       </c>
-      <c r="H116" t="s">
+      <c r="B120" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="117" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G117" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" t="s">
         <v>240</v>
       </c>
-      <c r="H117" t="s">
+      <c r="B121" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="118" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G118" t="s">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" t="s">
         <v>242</v>
       </c>
-      <c r="H118" t="s">
+      <c r="B122" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="119" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G119" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" t="s">
         <v>244</v>
       </c>
-      <c r="H119" t="s">
+      <c r="B123" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="120" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G120" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" t="s">
         <v>246</v>
       </c>
-      <c r="H120" t="s">
+      <c r="B124" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="121" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G121" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" t="s">
         <v>248</v>
       </c>
-      <c r="H121" t="s">
+      <c r="B125" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="122" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G122" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" t="s">
         <v>250</v>
       </c>
-      <c r="H122" t="s">
+      <c r="B126" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="123" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G123" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" t="s">
         <v>252</v>
       </c>
-      <c r="H123" t="s">
+      <c r="B127" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="124" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G124" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" t="s">
         <v>254</v>
       </c>
-      <c r="H124" t="s">
+      <c r="B128" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="125" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G125" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" t="s">
         <v>256</v>
       </c>
-      <c r="H125" t="s">
+      <c r="B129" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="126" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G126" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" t="s">
         <v>258</v>
       </c>
-      <c r="H126" t="s">
+      <c r="B130" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="127" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G127" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" t="s">
         <v>260</v>
       </c>
-      <c r="H127" t="s">
+      <c r="B131" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="128" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G128" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" t="s">
         <v>262</v>
       </c>
-      <c r="H128" t="s">
+      <c r="B132" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="129" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G129" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" t="s">
         <v>264</v>
       </c>
-      <c r="H129" t="s">
+      <c r="B133" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="130" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G130" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" t="s">
         <v>266</v>
       </c>
-      <c r="H130" t="s">
+      <c r="B134" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="131" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G131" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" t="s">
         <v>268</v>
       </c>
-      <c r="H131" t="s">
+      <c r="B135" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="132" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G132" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" t="s">
         <v>270</v>
       </c>
-      <c r="H132" t="s">
+      <c r="B136" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="133" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G133" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" t="s">
         <v>272</v>
       </c>
-      <c r="H133" t="s">
+      <c r="B137" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="134" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G134" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" t="s">
         <v>274</v>
       </c>
-      <c r="H134" t="s">
+      <c r="B138" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="135" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G135" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" t="s">
         <v>276</v>
       </c>
-      <c r="H135" t="s">
+      <c r="B139" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="136" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G136" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140" t="s">
         <v>278</v>
       </c>
-      <c r="H136" t="s">
+      <c r="B140" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="137" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G137" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" t="s">
         <v>280</v>
       </c>
-      <c r="H137" t="s">
+      <c r="B141" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="138" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G138" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" t="s">
         <v>282</v>
       </c>
-      <c r="H138" t="s">
+      <c r="B142" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="139" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G139" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143" t="s">
         <v>284</v>
       </c>
-      <c r="H139" t="s">
+      <c r="B143" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="140" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G140" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144" t="s">
         <v>286</v>
       </c>
-      <c r="H140" t="s">
+      <c r="B144" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="141" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G141" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" t="s">
         <v>288</v>
       </c>
-      <c r="H141" t="s">
+      <c r="B145" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="142" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G142" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" t="s">
         <v>290</v>
       </c>
-      <c r="H142" t="s">
+      <c r="B146" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="143" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G143" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147" t="s">
         <v>292</v>
       </c>
-      <c r="H143" t="s">
+      <c r="B147" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="144" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G144" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148" t="s">
         <v>294</v>
       </c>
-      <c r="H144" t="s">
+      <c r="B148" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="145" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G145" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149" t="s">
         <v>296</v>
       </c>
-      <c r="H145" t="s">
+      <c r="B149" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="146" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G146" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150" t="s">
         <v>298</v>
       </c>
-      <c r="H146" t="s">
+      <c r="B150" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="147" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G147" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151" t="s">
         <v>300</v>
       </c>
-      <c r="H147" t="s">
+      <c r="B151" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="148" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G148" t="s">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152" t="s">
         <v>302</v>
       </c>
-      <c r="H148" t="s">
+      <c r="B152" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="149" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G149" t="s">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153" t="s">
         <v>304</v>
       </c>
-      <c r="H149" t="s">
+      <c r="B153" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="150" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G150" t="s">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154" t="s">
         <v>306</v>
       </c>
-      <c r="H150" t="s">
+      <c r="B154" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="151" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G151" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" t="s">
         <v>308</v>
       </c>
-      <c r="H151" t="s">
+      <c r="B155" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="152" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G152" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156" t="s">
         <v>310</v>
       </c>
-      <c r="H152" t="s">
+      <c r="B156" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="153" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G153" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157" t="s">
         <v>312</v>
       </c>
-      <c r="H153" t="s">
+      <c r="B157" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="154" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G154" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" t="s">
         <v>314</v>
       </c>
-      <c r="H154" t="s">
+      <c r="B158" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="155" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G155" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159" t="s">
         <v>316</v>
       </c>
-      <c r="H155" t="s">
+      <c r="B159" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="156" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G156" t="s">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160" t="s">
         <v>318</v>
       </c>
-      <c r="H156" t="s">
+      <c r="B160" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="157" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G157" t="s">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" t="s">
         <v>320</v>
       </c>
-      <c r="H157" t="s">
+      <c r="B161" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="158" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G158" t="s">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" t="s">
         <v>322</v>
       </c>
-      <c r="H158" t="s">
+      <c r="B162" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="159" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G159" t="s">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" t="s">
         <v>324</v>
       </c>
-      <c r="H159" t="s">
+      <c r="B163" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="160" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G160" t="s">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" t="s">
         <v>326</v>
       </c>
-      <c r="H160" t="s">
+      <c r="B164" t="s">
         <v>327</v>
-      </c>
-    </row>
-    <row r="161" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G161" t="s">
-        <v>328</v>
-      </c>
-      <c r="H161" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="162" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G162" t="s">
-        <v>330</v>
-      </c>
-      <c r="H162" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="163" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G163" t="s">
-        <v>332</v>
-      </c>
-      <c r="H163" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="164" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G164" t="s">
-        <v>334</v>
-      </c>
-      <c r="H164" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="165" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G165" t="s">
-        <v>336</v>
-      </c>
-      <c r="H165" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="166" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G166" t="s">
-        <v>338</v>
-      </c>
-      <c r="H166" t="s">
-        <v>339</v>
       </c>
     </row>
   </sheetData>
